--- a/biology/Botanique/Guêpier_noir/Guêpier_noir.xlsx
+++ b/biology/Botanique/Guêpier_noir/Guêpier_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_noir</t>
+          <t>Guêpier_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merops gularis
 Le Guêpier noir (Merops gularis) est une espèce d'oiseaux appartenant à la famille des Meropidae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_noir</t>
+          <t>Guêpier_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Régime</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est majoritairement insectivore, se nourrissant d'insectes volants, en particulier d'hyménoptères.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_noir</t>
+          <t>Guêpier_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu à travers la forêt équatoriale d'Afrique Sub-Saharienne.
 Il fréquente surtout les bordures de forêts.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_noir</t>
+          <t>Guêpier_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon le Congrès ornithologique international (version 10.1), cet oiseau se réparti en 2 sous-espèces :
 M. g. gularis Shaw, 1798	— du Sierra Leone au sud du Nigeria ;
